--- a/REGULAR/RE-ENCODE/MACAPUNO, FELIX.xlsx
+++ b/REGULAR/RE-ENCODE/MACAPUNO, FELIX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>FL(4-0-0)</t>
+  </si>
+  <si>
+    <t>5/4,5/2023</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1265,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1424,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>294.33500000000004</v>
+        <v>295.58500000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1431,7 +1434,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>173.875</v>
+        <v>173.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3012,13 +3015,15 @@
         <v>45017</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -3029,7 +3034,9 @@
       <c r="A84" s="40">
         <v>45047</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
@@ -3038,10 +3045,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="39"/>
+      <c r="H84" s="39">
+        <v>2</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">

--- a/REGULAR/RE-ENCODE/MACAPUNO, FELIX.xlsx
+++ b/REGULAR/RE-ENCODE/MACAPUNO, FELIX.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -931,7 +931,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1260,12 +1260,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1434,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>173.125</v>
+        <v>172.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3055,10 +3055,10 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B85" s="20"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
@@ -3070,11 +3070,13 @@
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="49">
+        <v>45076</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3085,14 +3087,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="39">
+        <v>1</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3110,7 +3114,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3128,7 +3132,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3146,7 +3150,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3164,7 +3168,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3182,7 +3186,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3200,7 +3204,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3218,7 +3222,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3236,7 +3240,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3254,7 +3258,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3272,7 +3276,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3290,7 +3294,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3308,7 +3312,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3326,7 +3330,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3344,7 +3348,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3362,7 +3366,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3380,7 +3384,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3398,7 +3402,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3416,7 +3420,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3434,7 +3438,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3452,7 +3456,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3470,7 +3474,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3488,7 +3492,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3506,7 +3510,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3524,7 +3528,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3542,7 +3546,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3560,7 +3564,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3578,7 +3582,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3596,7 +3600,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3614,7 +3618,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3632,7 +3636,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3650,7 +3654,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3668,7 +3672,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3686,7 +3690,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3704,7 +3708,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3722,7 +3726,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3740,7 +3744,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3758,7 +3762,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3776,7 +3780,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3794,7 +3798,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3812,7 +3816,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3830,7 +3834,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3848,7 +3852,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3866,7 +3870,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3884,7 +3888,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3902,7 +3906,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3920,7 +3924,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3938,21 +3942,39 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
+        <v>46539</v>
+      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="40">
         <v>46569</v>
       </c>
-      <c r="B134" s="15"/>
-      <c r="C134" s="41"/>
-      <c r="D134" s="42"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="42"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="41"/>
+      <c r="D135" s="42"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="42"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
